--- a/Report of Foresty_20241017/林業署前後測結果/進階班/圖表-進階班.xlsx
+++ b/Report of Foresty_20241017/林業署前後測結果/進階班/圖表-進階班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20241017\林業署前後測結果\進階班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E8062-811F-40B6-ACEB-189340A44355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9CB2C-D09E-4CCF-B176-422F6339FBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,54 +19,11 @@
     <sheet name="各題_整體" sheetId="4" r:id="rId4"/>
     <sheet name="綜合" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$AQ$63</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'[1]Sheet 1'!$BF$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'[1]Sheet 1'!$BF$2:$BF$241</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$AU$1:$AU$241</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$AV$1:$AV$241</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$AW$1:$AW$241</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$AX$1:$AX$241</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$AY$1:$AY$241</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$AZ$1:$AZ$241</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$BA$1:$BA$241</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Sheet 1'!$BB$1:$BB$241</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Sheet 1'!$BC$1:$BC$241</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Sheet 1'!$BD$1:$BD$241</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'[1]Sheet 1'!$H$2:$H$241</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Sheet 1'!$BE$1:$BE$241</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Sheet 1'!$BF$1:$BF$241</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Sheet 1'!$H$1:$H$241</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">總分!#REF!</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">總分!$I$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">總分!$I$2:$I$59</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">總分!$I:$I</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">總分!$J$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">總分!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$AP$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">總分!$I$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">總分!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">總分!$J$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">總分!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Sheet 1'!$AP:$AP</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Sheet 1'!$H:$H</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">總分!$I$9</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Sheet 1'!$AP$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Sheet 1'!$AP$2:$AP$63</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Sheet 1'!$H$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$AP$1:$AP$241</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Sheet 1'!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">總分!$Q$27</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$AQ$1:$AQ$241</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$AR$1:$AR$241</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$AS$1:$AS$241</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$AT$1:$AT$241</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="176">
   <si>
     <t>序號</t>
   </si>
@@ -626,6 +583,186 @@
       <t>(paired-T)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前測</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>後測</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>標準誤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中間值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>眾數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>標準差</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>變異數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>峰度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偏態</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>範圍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最小值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>總和</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個數</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -633,9 +770,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -673,6 +810,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -682,7 +826,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -690,25 +834,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1768,20 +1939,20 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{9FC9BDFC-2254-46A5-9DD1-A3E15A7BACFC}">
+        <cx:series layoutId="boxWhisker" uniqueId="{9FC9BDFC-2254-46A5-9DD1-A3E15A7BACFC}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>總分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2468,7 +2639,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7315200" y="1143000"/>
+              <a:off x="6096000" y="1143000"/>
               <a:ext cx="5619750" cy="4991100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2577,2103 +2748,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet 1"/>
-      <sheetName val="總分"/>
-      <sheetName val="pair-T"/>
-      <sheetName val="各題_整體"/>
-      <sheetName val="綜合_整體"/>
-      <sheetName val="工作表4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="BF1" t="str">
-            <v>總分</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="H2" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF2">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF3">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF4">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF5">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF6">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF7">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF8">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF9">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF10">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF11">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF12">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF13">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF14">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF15">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF16">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF17">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF18">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF19">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF20">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF21">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF22">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF23">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF24">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF25">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF26">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF27">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF28">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF29">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF30">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF31">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF32">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF33">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF34">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF35">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF36">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF37">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF38">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF39">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF40">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF41">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF42">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF43">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF44">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF45">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF46">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF47">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF48">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF49">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF50">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF51">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF52">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF53">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF54">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF55">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF56">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF57">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF58">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF59">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF60">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF61">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF62">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF63">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF64">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF65">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF66">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF67">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF68">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF69">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF70">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF71">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF72">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF73">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF74">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF75">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF76">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF77">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF78">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF79">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF80">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF81">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="H82" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF82">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF83">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF84">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="H85" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF85">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="H86" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF86">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="H87" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF87">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="H88" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF88">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="H89" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF89">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="H90" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF90">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="H91" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF91">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="H92" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF92">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="H93" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF93">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="H94" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF94">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="H95" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF95">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="H96" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF96">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="H97" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF97">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="H98" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF98">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="H99" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF99">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="H100" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF100">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="H101" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF101">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="H102" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF102">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="H103" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF103">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="H104" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF104">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="H105" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF105">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="H106" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF106">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="H107" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF107">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="H108" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF108">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="H109" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF109">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="H110" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF110">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="H111" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF111">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="H112" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF112">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="H113" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF113">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="H114" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF114">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="H115" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF115">
-            <v>93</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="H116" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF116">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="H117" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF117">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="H118" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF118">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="H119" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF119">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="H120" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF120">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="H121" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF121">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="H122" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF122">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="H123" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF123">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="H124" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF124">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="H125" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF125">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="H126" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF126">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="H127" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF127">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="H128" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF128">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="H129" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF129">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="H130" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF130">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="H131" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF131">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="H132" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF132">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="H133" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF133">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="H134" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF134">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="H135" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF135">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="H136" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF136">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="H137" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF137">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="H138" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF138">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="H139" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF139">
-            <v>93</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="H140" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF140">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="H141" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF141">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="H142" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF142">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="H143" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF143">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="H144" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF144">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="H145" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF145">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="H146" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF146">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="H147" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF147">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="H148" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF148">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="H149" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF149">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="H150" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF150">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="H151" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF151">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="H152" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF152">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="H153" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF153">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="H154" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF154">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="H155" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF155">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="H156" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF156">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="H157" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF157">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="H158" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF158">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="H159" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF159">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="H160" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF160">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="H161" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF161">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="H162" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF162">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="H163" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF163">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="H164" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF164">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="H165" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF165">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="H166" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF166">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="H167" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF167">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="H168" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF168">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="H169" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF169">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="H170" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF170">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="H171" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF171">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="H172" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF172">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="H173" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF173">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="H174" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF174">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="H175" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF175">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="H176" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF176">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="H177" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF177">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="H178" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF178">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="H179" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF179">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="H180" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF180">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="H181" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF181">
-            <v>94</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="H182" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF182">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="H183" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF183">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="H184" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF184">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="H185" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF185">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="H186" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF186">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="H187" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF187">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="H188" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF188">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="H189" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF189">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="H190" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF190">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="H191" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF191">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="H192" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF192">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="H193" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF193">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="H194" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF194">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="H195" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF195">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="H196" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF196">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="H197" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF197">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="H198" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF198">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="H199" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF199">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="H200" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF200">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="H201" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF201">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="H202" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF202">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="H203" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF203">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="H204" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF204">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="H205" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF205">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="H206" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF206">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="H207" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF207">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="H208" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF208">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="H209" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF209">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="H210" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF210">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="H211" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF211">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="H212" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF212">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="H213" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF213">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="H214" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF214">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="H215" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF215">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="H216" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF216">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="H217" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF217">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="H218" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF218">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="H219" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF219">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="H220" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF220">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="H221" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF221">
-            <v>104</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="H222" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF222">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="H223" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF223">
-            <v>104</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="H224" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF224">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="H225" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF225">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="H226" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF226">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="H227" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF227">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="H228" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF228">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="H229" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF229">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="H230" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF230">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="H231" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF231">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="H232" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF232">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="H233" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF233">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="H234" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF234">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="H235" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF235">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="H236" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF236">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="H237" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF237">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="H238" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF238">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="H239" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF239">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="H240" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="BF240">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="H241" t="str">
-            <v>後測</v>
-          </cell>
-          <cell r="BF241">
-            <v>83</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet 1"/>
-      <sheetName val="總分"/>
-      <sheetName val="pair-T"/>
-      <sheetName val="工作表2"/>
-      <sheetName val="各題_整體"/>
-      <sheetName val="綜合"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="F3" t="str">
-            <v>前測</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v xml:space="preserve"> 後測</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>紅頭山雀</v>
-          </cell>
-          <cell r="F4">
-            <v>81.25</v>
-          </cell>
-          <cell r="G4">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>大赤啄木</v>
-          </cell>
-          <cell r="F5">
-            <v>68.75</v>
-          </cell>
-          <cell r="G5">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>栗背林鴝</v>
-          </cell>
-          <cell r="F6">
-            <v>50</v>
-          </cell>
-          <cell r="G6">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>松鴉</v>
-          </cell>
-          <cell r="F7">
-            <v>75</v>
-          </cell>
-          <cell r="G7">
-            <v>93.75</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>煤山雀</v>
-          </cell>
-          <cell r="F8">
-            <v>50</v>
-          </cell>
-          <cell r="G8">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>茶腹鳾</v>
-          </cell>
-          <cell r="F9">
-            <v>71.875</v>
-          </cell>
-          <cell r="G9">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>白耳畫眉</v>
-          </cell>
-          <cell r="F10">
-            <v>84.375</v>
-          </cell>
-          <cell r="G10">
-            <v>96.875</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>白尾鴝</v>
-          </cell>
-          <cell r="F11">
-            <v>56.25</v>
-          </cell>
-          <cell r="G11">
-            <v>93.75</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>紋翼畫眉</v>
-          </cell>
-          <cell r="F12">
-            <v>34.375</v>
-          </cell>
-          <cell r="G12">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>火冠戴菊鳥</v>
-          </cell>
-          <cell r="F13">
-            <v>43.75</v>
-          </cell>
-          <cell r="G13">
-            <v>62.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4955,10 +3029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="AP1:AP1048576 H1:H1048576"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3:AP59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,7 +3169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5350,7 +3425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5606,7 +3681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5862,7 +3937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6118,7 +4193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6374,7 +4449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6630,7 +4705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -6886,7 +4961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -7142,7 +5217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -7398,7 +5473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -7654,7 +5729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -7910,7 +5985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -8166,7 +6241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -8422,7 +6497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -8678,7 +6753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
@@ -8934,7 +7009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17</v>
       </c>
@@ -9190,7 +7265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -9446,7 +7521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19</v>
       </c>
@@ -9702,7 +7777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
@@ -9958,7 +8033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>21</v>
       </c>
@@ -10214,7 +8289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -10470,7 +8545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>23</v>
       </c>
@@ -10726,7 +8801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>24</v>
       </c>
@@ -10982,7 +9057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>25</v>
       </c>
@@ -11238,7 +9313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>26</v>
       </c>
@@ -11494,7 +9569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>28</v>
       </c>
@@ -11750,7 +9825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>29</v>
       </c>
@@ -12006,7 +10081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>30</v>
       </c>
@@ -12262,7 +10337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>31</v>
       </c>
@@ -12518,8 +10593,18 @@
         <v>62</v>
       </c>
     </row>
+    <row r="60" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AQ63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ63" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="後測"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12528,10 +10613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF1535-FFBD-4AAF-AC9A-A7FED17BB328}">
-  <dimension ref="B6:F13"/>
+  <dimension ref="B6:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12561,13 +10646,13 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>52.494999999999997</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>4.3140000000000001E-13</v>
       </c>
       <c r="F10" t="s">
@@ -12599,6 +10684,414 @@
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>76</v>
+      </c>
+      <c r="D40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>82</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>68</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="10">
+        <v>60.275862068965516</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="L43" s="10">
+        <v>79.517241379310349</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J44" s="10">
+        <v>4.8104198662861988</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="10">
+        <v>3.0620112718125849</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>82</v>
+      </c>
+      <c r="D45">
+        <v>96</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J45" s="10">
+        <v>64</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L45" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <v>98</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" s="10">
+        <v>76</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L46" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>82</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J47" s="10">
+        <v>25.904903771465104</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" s="10">
+        <v>16.489435340014296</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>90</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" s="10">
+        <v>671.06403940886696</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L48" s="10">
+        <v>271.9014778325124</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>84</v>
+      </c>
+      <c r="D49">
+        <v>94</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="10">
+        <v>-0.98636418016778071</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" s="10">
+        <v>-0.36339473786168108</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <v>92</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" s="10">
+        <v>-0.33611176289842376</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L50" s="10">
+        <v>-0.73362830738538698</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J51" s="10">
+        <v>86</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>92</v>
+      </c>
+      <c r="D52">
+        <v>96</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J52" s="10">
+        <v>14</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L52" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>74</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" s="10">
+        <v>100</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L53" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>60</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" s="10">
+        <v>1748</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L54" s="10">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>78</v>
+      </c>
+      <c r="D55">
+        <v>88</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" s="13">
+        <v>29</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L55" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>84</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>42</v>
+      </c>
+      <c r="D60">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>80</v>
+      </c>
+      <c r="D64">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>52</v>
+      </c>
+      <c r="D65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>76</v>
+      </c>
+      <c r="D66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -12613,7 +11106,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H50" sqref="H50:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12644,7 +11137,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C4">
@@ -12658,7 +11151,7 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C5">
@@ -12672,7 +11165,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C6">
@@ -12686,7 +11179,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C7">
@@ -12700,7 +11193,7 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C8">
@@ -12714,7 +11207,7 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C9">
@@ -12728,7 +11221,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C10">
@@ -12742,7 +11235,7 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C11">
@@ -12756,7 +11249,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C12">
@@ -12770,7 +11263,7 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C13">
@@ -12784,7 +11277,7 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C14">
@@ -12798,7 +11291,7 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C15">
@@ -12812,7 +11305,7 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C16">
@@ -12826,7 +11319,7 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C17">
@@ -12840,7 +11333,7 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C18">
@@ -12854,7 +11347,7 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C19">
@@ -12868,7 +11361,7 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C20">
@@ -12882,7 +11375,7 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C21">
@@ -12896,7 +11389,7 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C22">
@@ -12910,7 +11403,7 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C23">
@@ -12991,8 +11484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360742AD-AFE9-434D-A71E-00B05A36251F}">
   <dimension ref="B2:W6"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13072,237 +11565,237 @@
       <c r="C4" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!I:I)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>86.206896551724128</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!J:J)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>68.965517241379317</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!K:K)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>79.310344827586206</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!L:L)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>93.103448275862064</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!M:M)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>75.862068965517238</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!N:N)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>51.724137931034484</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!O:O)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>51.724137931034484</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!P:P)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>75.862068965517238</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!Q:Q)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>55.172413793103445</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!R:R)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>72.41379310344827</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!S:S)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>62.068965517241381</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!T:T)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>55.172413793103445</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!U:U)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>55.172413793103445</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!V:V)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>44.827586206896555</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!W:W)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>44.827586206896555</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!X:X)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>68.965517241379317</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!Y:Y)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>27.586206896551722</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!Z:Z)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>37.931034482758619</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!AA:AA)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>65.517241379310349</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C5,'Sheet 1'!AB:AB)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C5)*100</f>
         <v>72.41379310344827</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!I:I)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>93.103448275862064</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!J:J)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>65.517241379310349</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!K:K)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>96.551724137931032</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!L:L)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>100</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!M:M)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>79.310344827586206</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!N:N)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>75.862068965517238</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!O:O)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>65.517241379310349</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!P:P)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>93.103448275862064</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!Q:Q)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>96.551724137931032</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!R:R)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>82.758620689655174</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!S:S)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>86.206896551724128</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!T:T)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>68.965517241379317</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!U:U)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>75.862068965517238</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!V:V)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>68.965517241379317</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!W:W)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>72.41379310344827</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!X:X)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>93.103448275862064</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!Y:Y)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>44.827586206896555</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!Z:Z)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>82.758620689655174</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!AA:AA)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>65.517241379310349</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <f>SUMIF('Sheet 1'!$H:$H,各題_整體!$C6,'Sheet 1'!AB:AB)/COUNTIFS('Sheet 1'!$H:$H,各題_整體!$C6)*100</f>
         <v>100</v>
       </c>
@@ -13322,7 +11815,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13385,19 +11878,19 @@
       <c r="F2" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -13405,43 +11898,43 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AC:AC)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>34.482758620689658</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AD:AD)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>58.620689655172406</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AE:AE)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>55.172413793103445</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AF:AF)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>44.827586206896555</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AG:AG)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>72.41379310344827</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AH:AH)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>72.41379310344827</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AI:AI)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>72.41379310344827</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AJ:AJ)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>37.931034482758619</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AK:AK)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>51.724137931034484</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A3,'Sheet 1'!AL:AL)/COUNTIF('Sheet 1'!$H:$H,綜合!$A3)*100</f>
         <v>24.137931034482758</v>
       </c>
@@ -13450,43 +11943,43 @@
       <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AC:AC)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>72.41379310344827</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AD:AD)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AE:AE)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>86.206896551724128</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AF:AF)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>58.620689655172406</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AG:AG)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>96.551724137931032</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AH:AH)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>93.103448275862064</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AI:AI)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>65.517241379310349</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AJ:AJ)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>55.172413793103445</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AK:AK)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>82.758620689655174</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f>SUMIF('Sheet 1'!$H:$H,綜合!$A4,'Sheet 1'!AL:AL)/COUNTIF('Sheet 1'!$H:$H,綜合!$A4)*100</f>
         <v>51.724137931034484</v>
       </c>

--- a/Report of Foresty_20241017/林業署前後測結果/進階班/圖表-進階班.xlsx
+++ b/Report of Foresty_20241017/林業署前後測結果/進階班/圖表-進階班.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20241017\林業署前後測結果\進階班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9CB2C-D09E-4CCF-B176-422F6339FBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6D2BAE-C5D7-448A-8F3B-2D2FABD273ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="195">
   <si>
     <t>序號</t>
   </si>
@@ -762,6 +762,64 @@
       </rPr>
       <t>個數</t>
     </r>
+  </si>
+  <si>
+    <t>紅頭山雀</t>
+  </si>
+  <si>
+    <t>繡眼畫眉</t>
+  </si>
+  <si>
+    <t>藍腹鷴</t>
+  </si>
+  <si>
+    <t>冠羽畫眉</t>
+  </si>
+  <si>
+    <t>黃山雀</t>
+  </si>
+  <si>
+    <t>火冠戴菊鳥</t>
+  </si>
+  <si>
+    <t>栗背林鴝</t>
+  </si>
+  <si>
+    <t>煤山雀</t>
+  </si>
+  <si>
+    <t>臺灣噪眉</t>
+  </si>
+  <si>
+    <t>臺灣白眉林鴝</t>
+  </si>
+  <si>
+    <t>棕面鶯</t>
+  </si>
+  <si>
+    <t>黃胸藪眉</t>
+  </si>
+  <si>
+    <t>黃腹琉璃</t>
+  </si>
+  <si>
+    <t>臺灣鷦眉</t>
+  </si>
+  <si>
+    <t>白耳畫眉</t>
+  </si>
+  <si>
+    <t>褐頭花翼</t>
+  </si>
+  <si>
+    <t>星鴉</t>
+  </si>
+  <si>
+    <t>深山鶯</t>
+  </si>
+  <si>
+    <t>鳥種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -813,9 +871,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="細明體"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,7 +884,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -854,6 +912,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -870,15 +937,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,7 +1011,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>(b)</a:t>
+              <a:t>(A)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -952,7 +1019,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>鳥音測驗</a:t>
+              <a:t>外形測驗</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -986,7 +1053,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$5</c:f>
+              <c:f>各題_整體!$AB$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1007,84 +1074,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$N$4:$W$4</c:f>
+              <c:f>各題_整體!$AA$14:$AA$23</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>棕面鶯</c:v>
+                  <c:v>冠羽畫眉</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>黃胸藪眉</c:v>
+                  <c:v>紅頭山雀</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>繡眼畫眉</c:v>
+                  <c:v>藍腹鷴</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>黃腹琉璃</c:v>
+                  <c:v>煤山雀</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>臺灣鷦眉</c:v>
+                  <c:v>黃山雀</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>白耳畫眉</c:v>
+                  <c:v>臺灣白眉林鴝</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>褐頭花翼</c:v>
+                  <c:v>繡眼畫眉</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>臺灣噪眉</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>星鴉</c:v>
+                  <c:v>火冠戴菊鳥</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>深山鶯</c:v>
+                  <c:v>栗背林鴝</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$N$5:$W$5</c:f>
+              <c:f>各題_整體!$AB$14:$AB$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>62.068965517241381</c:v>
+                  <c:v>93.103448275862064</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>86.206896551724128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.310344827586206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.862068965517238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.862068965517238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.41379310344827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.965517241379317</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>55.172413793103445</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.172413793103445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.827586206896555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.827586206896555</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68.965517241379317</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.586206896551722</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37.931034482758619</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.517241379310349</c:v>
+                  <c:v>51.724137931034484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.41379310344827</c:v>
+                  <c:v>51.724137931034484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EDA2-42F6-A122-D60AA204E4C9}"/>
+              <c16:uniqueId val="{00000003-BF3F-4672-B181-C9AEBC6F3BEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1093,7 +1160,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$6</c:f>
+              <c:f>各題_整體!$AC$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1114,84 +1181,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$N$4:$W$4</c:f>
+              <c:f>各題_整體!$AA$14:$AA$23</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>棕面鶯</c:v>
+                  <c:v>冠羽畫眉</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>黃胸藪眉</c:v>
+                  <c:v>紅頭山雀</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>繡眼畫眉</c:v>
+                  <c:v>藍腹鷴</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>黃腹琉璃</c:v>
+                  <c:v>煤山雀</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>臺灣鷦眉</c:v>
+                  <c:v>黃山雀</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>白耳畫眉</c:v>
+                  <c:v>臺灣白眉林鴝</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>褐頭花翼</c:v>
+                  <c:v>繡眼畫眉</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>臺灣噪眉</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>星鴉</c:v>
+                  <c:v>火冠戴菊鳥</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>深山鶯</c:v>
+                  <c:v>栗背林鴝</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$N$6:$W$6</c:f>
+              <c:f>各題_整體!$AC$14:$AC$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>86.206896551724128</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.965517241379317</c:v>
+                  <c:v>93.103448275862064</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>96.551724137931032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.103448275862064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.310344827586206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.758620689655174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.517241379310349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.551724137931032</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>75.862068965517238</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.965517241379317</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.41379310344827</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93.103448275862064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.827586206896555</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.758620689655174</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>65.517241379310349</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EDA2-42F6-A122-D60AA204E4C9}"/>
+              <c16:uniqueId val="{00000005-BF3F-4672-B181-C9AEBC6F3BEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1456,12 +1523,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
-              <a:t>(a)</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(B)</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
-              <a:t>外形測驗</a:t>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>鳥音測驗</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1495,7 +1570,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$5</c:f>
+              <c:f>各題_整體!$AB$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1516,84 +1591,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$D$4:$M$4</c:f>
+              <c:f>各題_整體!$AA$30:$AA$39</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>紅頭山雀</c:v>
+                  <c:v>深山鶯</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>星鴉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>繡眼畫眉</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>藍腹鷴</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>冠羽畫眉</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>黃山雀</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>火冠戴菊鳥</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>栗背林鴝</c:v>
+                  <c:v>黃腹琉璃</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>煤山雀</c:v>
+                  <c:v>臺灣鷦眉</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>臺灣噪眉</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>臺灣白眉林鴝</c:v>
+                  <c:v>褐頭花翼</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$D$5:$M$5</c:f>
+              <c:f>各題_整體!$AB$30:$AB$39</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>86.206896551724128</c:v>
+                  <c:v>72.41379310344827</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>68.965517241379317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.310344827586206</c:v>
+                  <c:v>65.517241379310349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.103448275862064</c:v>
+                  <c:v>62.068965517241381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.862068965517238</c:v>
+                  <c:v>55.172413793103445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.724137931034484</c:v>
+                  <c:v>55.172413793103445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.724137931034484</c:v>
+                  <c:v>44.827586206896555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.862068965517238</c:v>
+                  <c:v>44.827586206896555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.172413793103445</c:v>
+                  <c:v>37.931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.41379310344827</c:v>
+                  <c:v>27.586206896551722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-58CC-4ACC-8128-DFF45ED590D7}"/>
+              <c16:uniqueId val="{00000003-AA1C-4CD2-9FFF-2437F4296D0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1602,7 +1677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$6</c:f>
+              <c:f>各題_整體!$AC$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1623,84 +1698,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$D$4:$M$4</c:f>
+              <c:f>各題_整體!$AA$30:$AA$39</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>紅頭山雀</c:v>
+                  <c:v>深山鶯</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>星鴉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>繡眼畫眉</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>藍腹鷴</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>冠羽畫眉</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>黃山雀</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>火冠戴菊鳥</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>栗背林鴝</c:v>
+                  <c:v>黃腹琉璃</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>煤山雀</c:v>
+                  <c:v>臺灣鷦眉</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>臺灣噪眉</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>臺灣白眉林鴝</c:v>
+                  <c:v>褐頭花翼</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$D$6:$M$6</c:f>
+              <c:f>各題_整體!$AC$30:$AC$39</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>93.103448275862064</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>65.517241379310349</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.551724137931032</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>86.206896551724128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.310344827586206</c:v>
+                  <c:v>68.965517241379317</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>75.862068965517238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.517241379310349</c:v>
+                  <c:v>68.965517241379317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.103448275862064</c:v>
+                  <c:v>72.41379310344827</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.551724137931032</c:v>
+                  <c:v>82.758620689655174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.758620689655174</c:v>
+                  <c:v>44.827586206896555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-58CC-4ACC-8128-DFF45ED590D7}"/>
+              <c16:uniqueId val="{00000005-AA1C-4CD2-9FFF-2437F4296D0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2677,23 +2752,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>37424</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>456525</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>161475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591D3FF8-F282-049F-C04A-059123FFDB6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082CA403-4077-E4C8-ACA9-88363E8C2720}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,23 +2788,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85049</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>456525</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7">
+        <xdr:cNvPr id="3" name="圖表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF534520-68E2-E631-71CC-E00DD9DEA391}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691C550A-16E7-4A70-EFF6-E00E86A37ABA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,11 +3104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AQ63"/>
+  <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3:AP59"/>
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,7 +3243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3425,7 +3499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3681,7 +3755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3937,7 +4011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4193,7 +4267,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4449,7 +4523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4705,7 +4779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4961,7 +5035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -5217,7 +5291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -5473,7 +5547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -5729,7 +5803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -5985,7 +6059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -6241,7 +6315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -6497,7 +6571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -6753,7 +6827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
@@ -7009,7 +7083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17</v>
       </c>
@@ -7265,7 +7339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -7521,7 +7595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19</v>
       </c>
@@ -7777,7 +7851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
@@ -8033,7 +8107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>21</v>
       </c>
@@ -8289,7 +8363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -8545,7 +8619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>23</v>
       </c>
@@ -8801,7 +8875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>24</v>
       </c>
@@ -9057,7 +9131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>25</v>
       </c>
@@ -9313,7 +9387,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>26</v>
       </c>
@@ -9569,7 +9643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>28</v>
       </c>
@@ -9825,7 +9899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>29</v>
       </c>
@@ -10081,7 +10155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>30</v>
       </c>
@@ -10337,7 +10411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>31</v>
       </c>
@@ -10593,18 +10667,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AQ63" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="後測"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AQ63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10709,14 +10773,14 @@
       <c r="D41">
         <v>66</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14" t="s">
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="L41" s="14"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -10725,10 +10789,6 @@
       <c r="D42">
         <v>82</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
@@ -10737,16 +10797,16 @@
       <c r="D43">
         <v>68</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" t="s">
         <v>163</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43">
         <v>60.275862068965516</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" t="s">
         <v>163</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43">
         <v>79.517241379310349</v>
       </c>
     </row>
@@ -10757,16 +10817,16 @@
       <c r="D44">
         <v>50</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" t="s">
         <v>164</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44">
         <v>4.8104198662861988</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" t="s">
         <v>164</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44">
         <v>3.0620112718125849</v>
       </c>
     </row>
@@ -10777,16 +10837,16 @@
       <c r="D45">
         <v>96</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" t="s">
         <v>165</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45">
         <v>64</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" t="s">
         <v>165</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45">
         <v>82</v>
       </c>
     </row>
@@ -10797,16 +10857,16 @@
       <c r="D46">
         <v>98</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" t="s">
         <v>166</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46">
         <v>76</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" t="s">
         <v>166</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46">
         <v>80</v>
       </c>
     </row>
@@ -10817,16 +10877,16 @@
       <c r="D47">
         <v>82</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" t="s">
         <v>167</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47">
         <v>25.904903771465104</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" t="s">
         <v>167</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47">
         <v>16.489435340014296</v>
       </c>
     </row>
@@ -10837,16 +10897,16 @@
       <c r="D48">
         <v>90</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" t="s">
         <v>168</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48">
         <v>671.06403940886696</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" t="s">
         <v>168</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48">
         <v>271.9014778325124</v>
       </c>
     </row>
@@ -10857,16 +10917,16 @@
       <c r="D49">
         <v>94</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" t="s">
         <v>169</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49">
         <v>-0.98636418016778071</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" t="s">
         <v>169</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49">
         <v>-0.36339473786168108</v>
       </c>
     </row>
@@ -10877,16 +10937,16 @@
       <c r="D50">
         <v>92</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" t="s">
         <v>170</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50">
         <v>-0.33611176289842376</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" t="s">
         <v>170</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50">
         <v>-0.73362830738538698</v>
       </c>
     </row>
@@ -10897,16 +10957,16 @@
       <c r="D51">
         <v>100</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" t="s">
         <v>171</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51">
         <v>86</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" t="s">
         <v>171</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51">
         <v>56</v>
       </c>
     </row>
@@ -10917,16 +10977,16 @@
       <c r="D52">
         <v>96</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" t="s">
         <v>172</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52">
         <v>14</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" t="s">
         <v>172</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52">
         <v>44</v>
       </c>
     </row>
@@ -10937,16 +10997,16 @@
       <c r="D53">
         <v>74</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" t="s">
         <v>173</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53">
         <v>100</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" t="s">
         <v>173</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53">
         <v>100</v>
       </c>
     </row>
@@ -10957,16 +11017,16 @@
       <c r="D54">
         <v>60</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" t="s">
         <v>174</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54">
         <v>1748</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" t="s">
         <v>174</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54">
         <v>2306</v>
       </c>
     </row>
@@ -10977,16 +11037,16 @@
       <c r="D55">
         <v>88</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="9">
         <v>29</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="9">
         <v>29</v>
       </c>
     </row>
@@ -11103,26 +11163,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640AC478-5803-4D4C-A892-FD5654871A83}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50:I50"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -11132,8 +11193,17 @@
       <c r="D3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11146,8 +11216,19 @@
       <c r="D4">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4">
+        <f>INDEX(C$4:C$13,MATCH($H4,$B$4:$B$13,0))</f>
+        <v>1.44</v>
+      </c>
+      <c r="J4" s="4">
+        <f>INDEX(D$4:D$13,MATCH($H4,$B$4:$B$13,0))</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -11160,8 +11241,19 @@
       <c r="D5">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:J13" si="0">INDEX(C$4:C$13,MATCH($H5,$B$4:$B$13,0))</f>
+        <v>1.44</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11174,8 +11266,19 @@
       <c r="D6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.42</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11188,8 +11291,19 @@
       <c r="D7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.42</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -11202,8 +11316,19 @@
       <c r="D8">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -11216,8 +11341,19 @@
       <c r="D9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -11230,8 +11366,19 @@
       <c r="D10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-0.44</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -11244,8 +11391,19 @@
       <c r="D11">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -11258,8 +11416,19 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2.98</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -11272,8 +11441,19 @@
       <c r="D13">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -11286,8 +11466,19 @@
       <c r="D14">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14">
+        <f>INDEX(C$14:C$23,MATCH($H14,$B$14:$B$23,0))</f>
+        <v>3.27</v>
+      </c>
+      <c r="J14" s="4">
+        <f>INDEX(D$14:D$23,MATCH($H14,$B$14:$B$23,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -11300,8 +11491,19 @@
       <c r="D15">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:J23" si="1">INDEX(C$14:C$23,MATCH($H15,$B$14:$B$23,0))</f>
+        <v>2.98</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -11314,8 +11516,19 @@
       <c r="D16">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -11328,8 +11541,19 @@
       <c r="D17">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -11342,8 +11566,19 @@
       <c r="D18">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -11356,8 +11591,19 @@
       <c r="D19">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -11370,8 +11616,19 @@
       <c r="D20">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -11384,8 +11641,19 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>2.82</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -11398,8 +11666,19 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11412,8 +11691,19 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -11427,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -11441,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -11455,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -11482,21 +11772,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360742AD-AFE9-434D-A71E-00B05A36251F}">
-  <dimension ref="B2:W6"/>
+  <dimension ref="B2:AC39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>116</v>
       </c>
@@ -11561,7 +11851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>117</v>
       </c>
@@ -11626,8 +11916,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -11714,8 +12004,8 @@
         <v>72.41379310344827</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>119</v>
       </c>
@@ -11800,7 +12090,306 @@
         <v>100</v>
       </c>
     </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14">
+        <v>93.103448275862064</v>
+      </c>
+      <c r="AC14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB15">
+        <v>86.206896551724128</v>
+      </c>
+      <c r="AC15">
+        <v>93.103448275862064</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB16">
+        <v>79.310344827586206</v>
+      </c>
+      <c r="AC16">
+        <v>96.551724137931032</v>
+      </c>
+    </row>
+    <row r="17" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB17">
+        <v>75.862068965517238</v>
+      </c>
+      <c r="AC17">
+        <v>93.103448275862064</v>
+      </c>
+    </row>
+    <row r="18" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB18">
+        <v>75.862068965517238</v>
+      </c>
+      <c r="AC18">
+        <v>79.310344827586206</v>
+      </c>
+    </row>
+    <row r="19" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB19">
+        <v>72.41379310344827</v>
+      </c>
+      <c r="AC19">
+        <v>82.758620689655174</v>
+      </c>
+    </row>
+    <row r="20" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB20">
+        <v>68.965517241379317</v>
+      </c>
+      <c r="AC20">
+        <v>65.517241379310349</v>
+      </c>
+    </row>
+    <row r="21" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB21">
+        <v>55.172413793103445</v>
+      </c>
+      <c r="AC21">
+        <v>96.551724137931032</v>
+      </c>
+    </row>
+    <row r="22" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB22">
+        <v>51.724137931034484</v>
+      </c>
+      <c r="AC22">
+        <v>75.862068965517238</v>
+      </c>
+    </row>
+    <row r="23" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB23">
+        <v>51.724137931034484</v>
+      </c>
+      <c r="AC23">
+        <v>65.517241379310349</v>
+      </c>
+    </row>
+    <row r="29" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="AB29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB30">
+        <v>72.41379310344827</v>
+      </c>
+      <c r="AC30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB31">
+        <v>68.965517241379317</v>
+      </c>
+      <c r="AC31">
+        <v>93.103448275862064</v>
+      </c>
+    </row>
+    <row r="32" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB32">
+        <v>65.517241379310349</v>
+      </c>
+      <c r="AC32">
+        <v>65.517241379310349</v>
+      </c>
+    </row>
+    <row r="33" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB33">
+        <v>62.068965517241381</v>
+      </c>
+      <c r="AC33">
+        <v>86.206896551724128</v>
+      </c>
+    </row>
+    <row r="34" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB34">
+        <v>55.172413793103445</v>
+      </c>
+      <c r="AC34">
+        <v>68.965517241379317</v>
+      </c>
+    </row>
+    <row r="35" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB35">
+        <v>55.172413793103445</v>
+      </c>
+      <c r="AC35">
+        <v>75.862068965517238</v>
+      </c>
+    </row>
+    <row r="36" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB36">
+        <v>44.827586206896555</v>
+      </c>
+      <c r="AC36">
+        <v>68.965517241379317</v>
+      </c>
+    </row>
+    <row r="37" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB37">
+        <v>44.827586206896555</v>
+      </c>
+      <c r="AC37">
+        <v>72.41379310344827</v>
+      </c>
+    </row>
+    <row r="38" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB38">
+        <v>37.931034482758619</v>
+      </c>
+      <c r="AC38">
+        <v>82.758620689655174</v>
+      </c>
+    </row>
+    <row r="39" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB39">
+        <v>27.586206896551722</v>
+      </c>
+      <c r="AC39">
+        <v>44.827586206896555</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z30:AC39">
+    <sortCondition descending="1" ref="AB30:AB39"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B5:B6"/>
   </mergeCells>

--- a/Report of Foresty_20241017/林業署前後測結果/進階班/圖表-進階班.xlsx
+++ b/Report of Foresty_20241017/林業署前後測結果/進階班/圖表-進階班.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20241017\林業署前後測結果\進階班\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6D2BAE-C5D7-448A-8F3B-2D2FABD273ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B80E48-7525-46A0-A8C7-9C09E44A0BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,55 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$AQ$63</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$AP$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">總分!$C$39</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">總分!$C$40:$C$68</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">總分!$D$39</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">總分!$D$40:$D$68</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">總分!$C$39</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">總分!$C$40:$C$68</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">總分!$D$39</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">總分!$D$40:$D$68</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">總分!$C$39</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">總分!$C$40:$C$68</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">總分!$D$39</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">總分!$D$40:$D$68</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Sheet 1'!$H:$H</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">總分!$F$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">總分!$C$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$AP$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$AP$2:$AP$59</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$H$2:$H$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -964,6 +1012,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF595959"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1019,7 +1072,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>外形測驗</a:t>
+              <a:t>鳥類外形辨識</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1536,7 +1589,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>鳥音測驗</a:t>
+              <a:t>鳥類聲音辨識</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2014,10 +2067,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2027,7 +2080,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9FC9BDFC-2254-46A5-9DD1-A3E15A7BACFC}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>總分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2077,6 +2130,34 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>總分</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1600" b="1"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>總分</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
         <cx:spPr>
@@ -2107,6 +2188,11 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -2669,16 +2755,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2714,7 +2800,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6096000" y="1143000"/>
+              <a:off x="7905750" y="1104900"/>
               <a:ext cx="5619750" cy="4991100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2743,6 +2829,143 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17151DBA-015F-45F8-8079-13B371AD88F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="3190875"/>
+          <a:ext cx="285750" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="595959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文字方塊 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14AED08-6A4A-10E0-4958-1F1B97FA557F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048626" y="3190875"/>
+          <a:ext cx="419099" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="eaVert" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分數</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3106,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AX9" sqref="AX9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="AP1:AP1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10680,7 +10903,7 @@
   <dimension ref="B6:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11166,7 +11389,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11774,8 +11997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360742AD-AFE9-434D-A71E-00B05A36251F}">
   <dimension ref="B2:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12404,7 +12627,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
